--- a/medicine/Sexualité et sexologie/Soi_Pratuchai/Soi_Pratuchai.xlsx
+++ b/medicine/Sexualité et sexologie/Soi_Pratuchai/Soi_Pratuchai.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Soi Pratuchai (aussi dénommé: "Soi Twilight"[1]; thaï : ซอยประตูชัย, signifiant "l'Arc de triomphe") était une zone de divertissement gay dans le district de Bangrak de Bangkok, en Thaïlande[2],[3], recevant principalement, mais pas exclusivement, des touristes étrangers et expatriés. Soi Pratuchai fut connu internationalement comme un quartier rouge pour les gays au cœur de Bangkok.
+Soi Pratuchai (aussi dénommé: "Soi Twilight"; thaï : ซอยประตูชัย, signifiant "l'Arc de triomphe") était une zone de divertissement gay dans le district de Bangrak de Bangkok, en Thaïlande recevant principalement, mais pas exclusivement, des touristes étrangers et expatriés. Soi Pratuchai fut connu internationalement comme un quartier rouge pour les gays au cœur de Bangkok.
 Soi Pratuchai est fermé depuis le 1er avril 2019. Tous les bâtiments seront détruits et certains bars déménageront à proximité, tandis que d'autres seront fermés définitivement.
 </t>
         </is>
@@ -513,17 +525,19 @@
           <t>Emplacement et disposition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Soi Pratuchai se compose d'une passerelle en forme de «7» qui court entre la route de Surawong[4],[5] et la route de Rama IV.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Soi Pratuchai se compose d'une passerelle en forme de «7» qui court entre la route de Surawong, et la route de Rama IV.
 Du sud au nord, il y avait beaucoup de bars, restaurants, cafés et salons gay :
-Hot Male Bar[6]
-Banana Bar[7]
+Hot Male Bar
+Banana Bar
 Bar X-Boys
 Bar X Men
 Restaurant Maxis
 Bar des garçons de Bangkok
-Bar Dream Boy[8]
+Bar Dream Boy
 Bar Fresh Beach Boyz
 Barre de taille X
 Balls Sports Bar
@@ -555,12 +569,14 @@
           <t>Entreprises liées au sexe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plupart des bars à go-go de Soi Pratuchai présentaient des garçons dansant sur scène[9]. Les danseurs (et même occasionnellement le personnel de service) sont généralement disponibles pour les clients prêts à payer le montant convenu pour les sortir du bar ; les frais pour les services sexuels sont négociés séparément[4]. Certains établissements faisant la publicité de "massages" sont en fait des bordels déguisés[10], et quelques fameux "bars à pipe" proposent des fellations au bar principal ou dans les arrière-salles.
-Plusieurs bars à l'étage proposent encore des shows sexuels (techniquement illégaux), avec des garçons exécutant divers actes créatifs[11].
-Certains établissements de Patpong employaient des kathoeys (ou "ladyboys"), soit exclusivement, soit dans le cadre d'un personnel mixte[12].
-Les bars ouvraient à 18 h et fermaient à 2 h[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plupart des bars à go-go de Soi Pratuchai présentaient des garçons dansant sur scène. Les danseurs (et même occasionnellement le personnel de service) sont généralement disponibles pour les clients prêts à payer le montant convenu pour les sortir du bar ; les frais pour les services sexuels sont négociés séparément. Certains établissements faisant la publicité de "massages" sont en fait des bordels déguisés, et quelques fameux "bars à pipe" proposent des fellations au bar principal ou dans les arrière-salles.
+Plusieurs bars à l'étage proposent encore des shows sexuels (techniquement illégaux), avec des garçons exécutant divers actes créatifs.
+Certains établissements de Patpong employaient des kathoeys (ou "ladyboys"), soit exclusivement, soit dans le cadre d'un personnel mixte.
+Les bars ouvraient à 18 h et fermaient à 2 h.
 </t>
         </is>
       </c>
